--- a/tacy_app/tacy_app/media/files/user/1/reestr.xlsx
+++ b/tacy_app/tacy_app/media/files/user/1/reestr.xlsx
@@ -11,6 +11,86 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название инициативы</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>м1</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>роль1</t>
+  </si>
+  <si>
+    <t>роль2</t>
+  </si>
+  <si>
+    <t>роль3</t>
+  </si>
+  <si>
+    <t>роль4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 мероприятие </t>
+  </si>
+  <si>
+    <t>Завершено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null null.null; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b b.b; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c c.c; </t>
+  </si>
+  <si>
+    <t>2 мер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a a.a; b b.b; c c.c; </t>
+  </si>
+  <si>
+    <t>1 мероприятие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a a.a; </t>
+  </si>
+  <si>
+    <t>asd11111111111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я я.я; </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b b.b; c c.c; я я.я; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a a.a; я я.я; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b b.b; c c.c; </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,6 +136,24 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="№"/>
+    <tableColumn id="2" name="Название инициативы"/>
+    <tableColumn id="3" name="Статус"/>
+    <tableColumn id="4" name="м1"/>
+    <tableColumn id="5" name="м2"/>
+    <tableColumn id="6" name="роль1"/>
+    <tableColumn id="7" name="роль2"/>
+    <tableColumn id="8" name="роль3"/>
+    <tableColumn id="9" name="роль4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -351,8 +449,186 @@
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="10" width="25.7109375" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0125</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.0333</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>